--- a/Sudha/Week1CalculatorReframework/Data/Input/input.xlsx
+++ b/Sudha/Week1CalculatorReframework/Data/Input/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\GitSpace\RPA-Developer-in-30-Days\vajrang\Week1Calculator_Reframework\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\UiPath\RPA-Developer-in-30-Days\RPA-Developer-in-30-Days\Sudha\Week1CalculatorReframework\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8872B9-BC25-43BC-97D1-BC1AE163CD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D696831-B153-4C89-ADFA-510D20E0E4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="1464" windowWidth="12336" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
